--- a/data/salmon data/data for analysis/Coghill_Wild_Sockeye_final.xlsx
+++ b/data/salmon data/data for analysis/Coghill_Wild_Sockeye_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
@@ -993,8 +993,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1234,7 +1242,7 @@
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="223">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1342,6 +1350,10 @@
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1449,6 +1461,10 @@
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1780,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="E1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3297,14 +3313,14 @@
       <c r="J21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13">
-        <v>0</v>
-      </c>
-      <c r="M21" s="13">
-        <v>0</v>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>-1</v>
       </c>
       <c r="N21">
         <v>217115561</v>
@@ -3380,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13">
-        <v>0</v>
-      </c>
-      <c r="M22" s="13">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>-0.94736841999999999</v>
       </c>
       <c r="N22">
         <v>289647730</v>
@@ -3473,19 +3489,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
+        <v>-0.94736841999999999</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>-0.89473683999999998</v>
       </c>
       <c r="N23">
         <v>297246327</v>
@@ -3560,22 +3576,22 @@
         <v>-0.94736841999999999</v>
       </c>
       <c r="H24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
       </c>
       <c r="J24" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K24" s="13">
-        <v>0</v>
-      </c>
-      <c r="L24" s="13">
-        <v>0</v>
-      </c>
-      <c r="M24" s="13">
-        <v>0</v>
+        <v>-0.89473683999999998</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
+        <v>-0.84210525999999997</v>
       </c>
       <c r="N24">
         <v>532044543</v>
@@ -3656,16 +3672,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="8">
-        <v>-0.94736841999999999</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1</v>
-      </c>
-      <c r="M25" s="13">
-        <v>-1</v>
+        <v>-0.84210525999999997</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8">
+        <v>-0.78947367999999996</v>
       </c>
       <c r="N25">
         <v>517869725</v>
@@ -3746,16 +3762,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="8">
-        <v>-0.89473683999999998</v>
-      </c>
-      <c r="K26" s="13">
-        <v>0</v>
-      </c>
-      <c r="L26" s="13">
-        <v>1</v>
-      </c>
-      <c r="M26" s="13">
-        <v>-0.94736841999999999</v>
+        <v>-0.78947367999999996</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>-0.73684210999999999</v>
       </c>
       <c r="N26">
         <v>617247527</v>
@@ -3836,16 +3852,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="8">
-        <v>-0.84210525999999997</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1</v>
-      </c>
-      <c r="M27" s="13">
-        <v>-0.89473683999999998</v>
+        <v>-0.73684210999999999</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8">
+        <v>-0.68421052999999998</v>
       </c>
       <c r="N27">
         <v>605425238</v>
@@ -3926,16 +3942,16 @@
         <v>1</v>
       </c>
       <c r="J28" s="8">
-        <v>-0.78947367999999996</v>
-      </c>
-      <c r="K28" s="13">
-        <v>0</v>
-      </c>
-      <c r="L28" s="13">
-        <v>1</v>
-      </c>
-      <c r="M28" s="13">
-        <v>-0.84210525999999997</v>
+        <v>-0.68421052999999998</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="8">
+        <v>-0.63157894999999997</v>
       </c>
       <c r="N28">
         <v>495701890</v>
@@ -4016,16 +4032,16 @@
         <v>1</v>
       </c>
       <c r="J29" s="8">
-        <v>-0.73684210999999999</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0</v>
-      </c>
-      <c r="L29" s="13">
-        <v>1</v>
-      </c>
-      <c r="M29" s="13">
-        <v>-0.78947367999999996</v>
+        <v>-0.63157894999999997</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>-0.57894736999999996</v>
       </c>
       <c r="N29">
         <v>567320525</v>
@@ -4106,16 +4122,16 @@
         <v>1</v>
       </c>
       <c r="J30" s="8">
-        <v>-0.68421052999999998</v>
-      </c>
-      <c r="K30" s="13">
-        <v>0</v>
-      </c>
-      <c r="L30" s="13">
-        <v>1</v>
-      </c>
-      <c r="M30" s="13">
-        <v>-0.73684210999999999</v>
+        <v>-0.57894736999999996</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>-0.52631578999999995</v>
       </c>
       <c r="N30">
         <v>489220608</v>
@@ -4196,16 +4212,16 @@
         <v>1</v>
       </c>
       <c r="J31" s="8">
-        <v>-0.63157894999999997</v>
-      </c>
-      <c r="K31" s="13">
-        <v>0</v>
-      </c>
-      <c r="L31" s="13">
-        <v>1</v>
-      </c>
-      <c r="M31" s="13">
-        <v>-0.68421052999999998</v>
+        <v>-0.52631578999999995</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="8">
+        <v>-0.47368420999999999</v>
       </c>
       <c r="N31">
         <v>613158229</v>
@@ -4286,16 +4302,16 @@
         <v>1</v>
       </c>
       <c r="J32" s="8">
-        <v>-0.57894736999999996</v>
-      </c>
-      <c r="K32" s="13">
-        <v>0</v>
-      </c>
-      <c r="L32" s="13">
-        <v>1</v>
-      </c>
-      <c r="M32" s="13">
-        <v>-0.63157894999999997</v>
+        <v>-0.47368420999999999</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
+        <v>-0.42105262999999998</v>
       </c>
       <c r="N32">
         <v>641675427</v>
@@ -4376,16 +4392,16 @@
         <v>1</v>
       </c>
       <c r="J33" s="8">
-        <v>-0.52631578999999995</v>
-      </c>
-      <c r="K33" s="13">
-        <v>0</v>
-      </c>
-      <c r="L33" s="13">
-        <v>1</v>
-      </c>
-      <c r="M33" s="13">
-        <v>-0.57894736999999996</v>
+        <v>-0.42105262999999998</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8">
+        <v>-0.36842105000000003</v>
       </c>
       <c r="N33">
         <v>483704011</v>
@@ -4466,16 +4482,16 @@
         <v>1</v>
       </c>
       <c r="J34" s="8">
-        <v>-0.47368420999999999</v>
-      </c>
-      <c r="K34" s="13">
-        <v>0</v>
-      </c>
-      <c r="L34" s="13">
-        <v>1</v>
-      </c>
-      <c r="M34" s="13">
-        <v>-0.52631578999999995</v>
+        <v>-0.36842105000000003</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1</v>
+      </c>
+      <c r="M34" s="8">
+        <v>-0.31578947000000002</v>
       </c>
       <c r="N34">
         <v>542383070</v>
@@ -4556,16 +4572,16 @@
         <v>1</v>
       </c>
       <c r="J35" s="8">
-        <v>-0.42105262999999998</v>
-      </c>
-      <c r="K35" s="13">
-        <v>0</v>
-      </c>
-      <c r="L35" s="13">
-        <v>1</v>
-      </c>
-      <c r="M35" s="13">
-        <v>-0.47368420999999999</v>
+        <v>-0.31578947000000002</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>-0.26315789000000001</v>
       </c>
       <c r="N35">
         <v>602128903</v>
@@ -4646,16 +4662,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="8">
-        <v>-0.36842105000000003</v>
-      </c>
-      <c r="K36" s="13">
-        <v>0</v>
-      </c>
-      <c r="L36" s="13">
-        <v>1</v>
-      </c>
-      <c r="M36" s="13">
-        <v>-0.42105262999999998</v>
+        <v>-0.26315789000000001</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+      <c r="M36" s="8">
+        <v>-0.21052631999999999</v>
       </c>
       <c r="N36">
         <v>586607038</v>
@@ -4736,16 +4752,16 @@
         <v>1</v>
       </c>
       <c r="J37" s="8">
-        <v>-0.31578947000000002</v>
-      </c>
-      <c r="K37" s="13">
-        <v>0</v>
-      </c>
-      <c r="L37" s="13">
-        <v>1</v>
-      </c>
-      <c r="M37" s="13">
-        <v>-0.36842105000000003</v>
+        <v>-0.21052631999999999</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1</v>
+      </c>
+      <c r="M37" s="8">
+        <v>-0.15789474000000001</v>
       </c>
       <c r="N37">
         <v>621062096</v>
@@ -4826,16 +4842,16 @@
         <v>1</v>
       </c>
       <c r="J38" s="8">
-        <v>-0.26315789000000001</v>
-      </c>
-      <c r="K38" s="13">
-        <v>0</v>
-      </c>
-      <c r="L38" s="13">
-        <v>1</v>
-      </c>
-      <c r="M38" s="13">
-        <v>-0.31578947000000002</v>
+        <v>-0.15789474000000001</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8">
+        <v>-0.10526315999999999</v>
       </c>
       <c r="N38">
         <v>603754659</v>
@@ -4916,16 +4932,16 @@
         <v>1</v>
       </c>
       <c r="J39" s="8">
-        <v>-0.21052631999999999</v>
-      </c>
-      <c r="K39" s="13">
-        <v>0</v>
-      </c>
-      <c r="L39" s="13">
-        <v>1</v>
-      </c>
-      <c r="M39" s="13">
-        <v>-0.26315789000000001</v>
+        <v>-0.10526315999999999</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8">
+        <v>-5.2631579999999997E-2</v>
       </c>
       <c r="N39">
         <v>607943252</v>
@@ -5006,16 +5022,16 @@
         <v>1</v>
       </c>
       <c r="J40" s="8">
-        <v>-0.15789474000000001</v>
-      </c>
-      <c r="K40" s="13">
-        <v>0</v>
-      </c>
-      <c r="L40" s="13">
-        <v>1</v>
-      </c>
-      <c r="M40" s="13">
-        <v>-0.21052631999999999</v>
+        <v>-5.2631579999999997E-2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
       </c>
       <c r="N40">
         <v>638846859</v>
@@ -5096,16 +5112,16 @@
         <v>1</v>
       </c>
       <c r="J41" s="8">
-        <v>-0.10526315999999999</v>
-      </c>
-      <c r="K41" s="13">
-        <v>0</v>
-      </c>
-      <c r="L41" s="13">
-        <v>1</v>
-      </c>
-      <c r="M41" s="13">
-        <v>-0.15789474000000001</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
       </c>
       <c r="N41">
         <v>564053077</v>
@@ -5186,16 +5202,16 @@
         <v>1</v>
       </c>
       <c r="J42" s="8">
-        <v>-5.2631579999999997E-2</v>
-      </c>
-      <c r="K42" s="13">
-        <v>0</v>
-      </c>
-      <c r="L42" s="13">
-        <v>1</v>
-      </c>
-      <c r="M42" s="13">
-        <v>-0.10526315999999999</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
       </c>
       <c r="N42">
         <v>599490314</v>
@@ -5262,6 +5278,9 @@
       <c r="F43" s="8">
         <v>1</v>
       </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
       <c r="H43" s="8">
         <v>0</v>
       </c>
@@ -5271,14 +5290,14 @@
       <c r="J43" s="8">
         <v>0</v>
       </c>
-      <c r="K43" s="13">
-        <v>0</v>
-      </c>
-      <c r="L43" s="13">
-        <v>1</v>
-      </c>
-      <c r="M43" s="13">
-        <v>-5.2631579999999997E-2</v>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
       </c>
       <c r="N43">
         <v>617608302</v>
@@ -5345,19 +5364,25 @@
       <c r="F44" s="8">
         <v>1</v>
       </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
       <c r="H44" s="8">
         <v>0</v>
       </c>
       <c r="I44" s="8">
         <v>1</v>
       </c>
-      <c r="K44" s="13">
-        <v>0</v>
-      </c>
-      <c r="L44" s="13">
-        <v>1</v>
-      </c>
-      <c r="M44" s="13">
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1</v>
+      </c>
+      <c r="M44" s="8">
         <v>0</v>
       </c>
       <c r="N44">
@@ -5425,19 +5450,27 @@
       <c r="F45" s="8">
         <v>1</v>
       </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
       <c r="H45" s="8">
         <v>0</v>
       </c>
       <c r="I45" s="8">
         <v>1</v>
       </c>
-      <c r="K45" s="13">
-        <v>0</v>
-      </c>
-      <c r="L45" s="13">
-        <v>1</v>
-      </c>
-      <c r="M45" s="13"/>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
       <c r="N45">
         <v>640202598</v>
       </c>
@@ -5497,19 +5530,27 @@
       <c r="F46" s="8">
         <v>1</v>
       </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
       <c r="H46" s="8">
         <v>0</v>
       </c>
       <c r="I46" s="8">
         <v>1</v>
       </c>
-      <c r="K46" s="13">
-        <v>0</v>
-      </c>
-      <c r="L46" s="13">
-        <v>1</v>
-      </c>
-      <c r="M46" s="13"/>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>1</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>647083753</v>
       </c>
@@ -5563,19 +5604,27 @@
       <c r="F47" s="8">
         <v>1</v>
       </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
       <c r="H47" s="8">
         <v>0</v>
       </c>
       <c r="I47" s="8">
         <v>1</v>
       </c>
-      <c r="K47" s="13">
-        <v>0</v>
-      </c>
-      <c r="L47" s="13">
-        <v>1</v>
-      </c>
-      <c r="M47" s="13"/>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0</v>
+      </c>
       <c r="N47">
         <v>641603439</v>
       </c>
@@ -5621,19 +5670,27 @@
       <c r="F48" s="8">
         <v>1</v>
       </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
       <c r="H48" s="8">
         <v>0</v>
       </c>
       <c r="I48" s="8">
         <v>1</v>
       </c>
-      <c r="K48" s="13">
-        <v>0</v>
-      </c>
-      <c r="L48" s="13">
-        <v>1</v>
-      </c>
-      <c r="M48" s="13"/>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>1</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0</v>
+      </c>
       <c r="N48">
         <v>673526737</v>
       </c>
@@ -5658,9 +5715,7 @@
       </c>
       <c r="W48" s="15"/>
     </row>
-    <row r="49" spans="11:23">
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
+    <row r="49" spans="13:23">
       <c r="M49" s="13"/>
       <c r="N49"/>
       <c r="O49"/>
@@ -5671,16 +5726,14 @@
       <c r="U49"/>
       <c r="W49" s="15"/>
     </row>
-    <row r="50" spans="11:23">
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
+    <row r="50" spans="13:23">
       <c r="M50" s="13"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="W50" s="15"/>
     </row>
-    <row r="51" spans="11:23">
+    <row r="51" spans="13:23">
       <c r="W51" s="13"/>
     </row>
   </sheetData>

--- a/data/salmon data/data for analysis/Coghill_Wild_Sockeye_final.xlsx
+++ b/data/salmon data/data for analysis/Coghill_Wild_Sockeye_final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="1480" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>BroodYear</t>
   </si>
@@ -856,6 +856,12 @@
   <si>
     <t>ad.hatchPinkRun.lag2</t>
   </si>
+  <si>
+    <t>discharge.lag0</t>
+  </si>
+  <si>
+    <t>discharge.lag1</t>
+  </si>
 </sst>
 </file>
 
@@ -976,12 +982,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -993,7 +1005,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="223">
+  <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1217,8 +1229,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1241,8 +1255,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="223">
+  <cellStyles count="225">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1354,6 +1369,7 @@
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1465,6 +1481,7 @@
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1794,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF51"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:M48"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1808,12 +1825,12 @@
     <col min="4" max="4" width="12.33203125" style="8" customWidth="1"/>
     <col min="5" max="18" width="11" style="8" customWidth="1"/>
     <col min="19" max="19" width="11" style="14" customWidth="1"/>
-    <col min="20" max="27" width="11" style="8" customWidth="1"/>
-    <col min="28" max="29" width="10.83203125" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="8"/>
+    <col min="20" max="29" width="11" style="8" customWidth="1"/>
+    <col min="30" max="31" width="10.83203125" style="8" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1892,17 +1909,23 @@
       <c r="Z1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:34">
       <c r="A2" s="10">
         <v>1968</v>
       </c>
@@ -1936,17 +1959,23 @@
       <c r="Y2" s="11">
         <v>292211</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="15">
+        <v>250558.67050000001</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>267230.38510000001</v>
+      </c>
+      <c r="AC2">
         <v>6.8027777406904404</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AD2" s="8">
         <v>-23.25</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AE2" s="8">
         <v>-44.75</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:34">
       <c r="A3" s="10">
         <v>1969</v>
       </c>
@@ -1992,17 +2021,23 @@
       <c r="Y3" s="11">
         <v>684035</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="15">
+        <v>259762.7947</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>250558.67050000001</v>
+      </c>
+      <c r="AC3">
         <v>6.2857407331466701</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AD3" s="8">
         <v>-44.75</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AE3" s="8">
         <v>-9.3333333333333321</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:34">
       <c r="A4" s="10">
         <v>1970</v>
       </c>
@@ -2055,17 +2090,23 @@
         <v>314560</v>
       </c>
       <c r="Z4" s="9"/>
-      <c r="AA4">
+      <c r="AA4" s="15">
+        <v>262705.315</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>259762.7947</v>
+      </c>
+      <c r="AC4">
         <v>6.2129629585478003</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AD4" s="8">
         <v>-9.3333333333333321</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AE4" s="8">
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:34">
       <c r="A5" s="10">
         <v>1971</v>
       </c>
@@ -2118,17 +2159,23 @@
         <v>1221109</v>
       </c>
       <c r="Z5" s="9"/>
-      <c r="AA5">
+      <c r="AA5" s="15">
+        <v>237275.0607</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>262705.315</v>
+      </c>
+      <c r="AC5">
         <v>6.3857407437430496</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AD5" s="8">
         <v>20.833333333333336</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AE5" s="8">
         <v>-24.916666666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:34">
       <c r="A6" s="10">
         <v>1972</v>
       </c>
@@ -2181,17 +2228,23 @@
         <v>255444</v>
       </c>
       <c r="Z6" s="9"/>
-      <c r="AA6">
+      <c r="AA6" s="15">
+        <v>227100.2844</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>237275.0607</v>
+      </c>
+      <c r="AC6">
         <v>6.7925925872943997</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AD6" s="8">
         <v>-24.916666666666668</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AE6" s="8">
         <v>29.666666666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:34">
       <c r="A7" s="10">
         <v>1973</v>
       </c>
@@ -2244,18 +2297,24 @@
         <v>125504.71428571429</v>
       </c>
       <c r="Z7" s="9"/>
-      <c r="AA7">
+      <c r="AA7" s="15">
+        <v>217824.0711</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>227100.2844</v>
+      </c>
+      <c r="AC7">
         <v>6.3951851615199304</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AD7" s="8">
         <v>29.666666666666668</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AE7" s="8">
         <v>8.25</v>
       </c>
-      <c r="AF7"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AH7"/>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="10">
         <v>1974</v>
       </c>
@@ -2308,19 +2367,25 @@
         <v>460922.92063492065</v>
       </c>
       <c r="Z8" s="9"/>
-      <c r="AA8">
+      <c r="AA8" s="15">
+        <v>279620.43199999997</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>217824.0711</v>
+      </c>
+      <c r="AC8">
         <v>6.7396296483498999</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AD8" s="8">
         <v>8.25</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AE8" s="8">
         <v>12.75</v>
       </c>
-      <c r="AE8"/>
-      <c r="AF8"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8"/>
+      <c r="AH8"/>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="10">
         <v>1975</v>
       </c>
@@ -2375,19 +2440,25 @@
         <v>698076.1825396826</v>
       </c>
       <c r="Z9" s="9"/>
-      <c r="AA9">
+      <c r="AA9" s="15">
+        <v>252906.58540000001</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>279620.43199999997</v>
+      </c>
+      <c r="AC9">
         <v>7.1818518197094896</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AD9" s="8">
         <v>12.75</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AE9" s="8">
         <v>-19.666666666666664</v>
       </c>
-      <c r="AE9"/>
-      <c r="AF9"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9"/>
+      <c r="AH9"/>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="10">
         <v>1976</v>
       </c>
@@ -2444,19 +2515,25 @@
         <v>664097.9444444445</v>
       </c>
       <c r="Z10" s="9"/>
-      <c r="AA10">
+      <c r="AA10" s="15">
+        <v>327652.45390000002</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>252906.58540000001</v>
+      </c>
+      <c r="AC10">
         <v>6.9775925918861699</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AD10" s="8">
         <v>-19.666666666666664</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AE10" s="8">
         <v>-8.8333333333333321</v>
       </c>
-      <c r="AE10" s="9"/>
-      <c r="AF10"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="9"/>
+      <c r="AH10"/>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="10">
         <v>1977</v>
       </c>
@@ -2513,19 +2590,25 @@
         <v>385054.20634920633</v>
       </c>
       <c r="Z11" s="9"/>
-      <c r="AA11">
+      <c r="AA11" s="15">
+        <v>306782.9817</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>327652.45390000002</v>
+      </c>
+      <c r="AC11">
         <v>7.1803703661318199</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AD11" s="8">
         <v>-8.8333333333333321</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AE11" s="8">
         <v>20.666666666666664</v>
       </c>
-      <c r="AE11" s="9"/>
-      <c r="AF11"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="9"/>
+      <c r="AH11"/>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="10">
         <v>1978</v>
       </c>
@@ -2582,19 +2665,25 @@
         <v>489257.40476190473</v>
       </c>
       <c r="Z12" s="9"/>
-      <c r="AA12">
+      <c r="AA12" s="15">
+        <v>240079.23989999999</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>306782.9817</v>
+      </c>
+      <c r="AC12">
         <v>6.9405555371884899</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AD12" s="8">
         <v>20.666666666666664</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AE12" s="8">
         <v>-7.25</v>
       </c>
-      <c r="AE12" s="9"/>
-      <c r="AF12"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" s="9"/>
+      <c r="AH12"/>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="10">
         <v>1979</v>
       </c>
@@ -2656,18 +2745,24 @@
       <c r="Z13" s="4">
         <v>310761</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="15">
+        <v>253325.39550000001</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>240079.23989999999</v>
+      </c>
+      <c r="AC13">
         <v>7.4931481326067901</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AD13" s="8">
         <v>-7.25</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AE13" s="8">
         <v>-17.916666666666668</v>
       </c>
-      <c r="AF13"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AH13"/>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="10">
         <v>1980</v>
       </c>
@@ -2735,19 +2830,25 @@
       <c r="Z14" s="4">
         <v>354604</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="18">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>253325.39550000001</v>
+      </c>
+      <c r="AC14">
         <v>7.0050000261377399</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AD14" s="8">
         <v>-17.916666666666668</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AE14" s="8">
         <v>-50.833333333333336</v>
       </c>
-      <c r="AE14"/>
-      <c r="AF14"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14"/>
+      <c r="AH14"/>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="10">
         <v>1981</v>
       </c>
@@ -2823,19 +2924,25 @@
       <c r="Z15" s="4">
         <v>508173</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="15">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AC15">
         <v>7.5764815100917096</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AD15" s="8">
         <v>-50.833333333333336</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AE15" s="8">
         <v>5</v>
       </c>
-      <c r="AE15"/>
-      <c r="AF15"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15"/>
+      <c r="AH15"/>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="10">
         <v>1982</v>
       </c>
@@ -2911,19 +3018,25 @@
       <c r="Z16" s="4">
         <v>296018</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="15">
+        <v>220808.3033</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AC16">
         <v>7.6064814814814801</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AD16" s="8">
         <v>5</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AE16" s="8">
         <v>28.583333333333332</v>
       </c>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="2"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="2"/>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" s="10">
         <v>1983</v>
       </c>
@@ -3001,19 +3114,25 @@
       <c r="Z17" s="4">
         <v>439877</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="15">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>220808.3033</v>
+      </c>
+      <c r="AC17">
         <v>6.8431481432031704</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AD17" s="8">
         <v>28.583333333333332</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AE17" s="8">
         <v>-5.25</v>
       </c>
-      <c r="AE17" s="9"/>
-      <c r="AF17"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="9"/>
+      <c r="AH17"/>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" s="10">
         <v>1984</v>
       </c>
@@ -3089,19 +3208,25 @@
       <c r="Z18" s="4">
         <v>693050</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="15">
+        <v>252524.6678</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AC18">
         <v>7.2175925925925899</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AD18" s="8">
         <v>-5.25</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AE18" s="8">
         <v>5.916666666666667</v>
       </c>
-      <c r="AE18" s="9"/>
-      <c r="AF18"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="9"/>
+      <c r="AH18"/>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" s="10">
         <v>1985</v>
       </c>
@@ -3181,18 +3306,24 @@
       <c r="Z19" s="4">
         <v>321770</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="15">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>252524.6678</v>
+      </c>
+      <c r="AC19">
         <v>7.2225925834090603</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AD19" s="8">
         <v>5.916666666666667</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AE19" s="8">
         <v>23.416666666666668</v>
       </c>
-      <c r="AF19"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AH19"/>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" s="10">
         <v>1986</v>
       </c>
@@ -3270,18 +3401,24 @@
       <c r="Z20" s="4">
         <v>139524</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="15">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AC20">
         <v>7.1796296349278199</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AD20" s="8">
         <v>23.416666666666668</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AE20" s="8">
         <v>16.416666666666668</v>
       </c>
-      <c r="AF20"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AH20"/>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" s="10">
         <v>1987</v>
       </c>
@@ -3361,18 +3498,24 @@
       <c r="Z21" s="4">
         <v>343498</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="15">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AC21">
         <v>7.1516667118778896</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AD21" s="8">
         <v>16.416666666666668</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AE21" s="8">
         <v>30.666666666666668</v>
       </c>
-      <c r="AF21"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AH21"/>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" s="10">
         <v>1988</v>
       </c>
@@ -3452,17 +3595,23 @@
       <c r="Z22" s="4">
         <v>235820</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="15">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AC22">
         <v>6.9655555177617998</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AD22" s="8">
         <v>30.666666666666668</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AE22" s="8">
         <v>48.833333333333329</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:34">
       <c r="A23" s="10">
         <v>1989</v>
       </c>
@@ -3542,17 +3691,23 @@
       <c r="Z23" s="4">
         <v>289183</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="15">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AC23">
         <v>6.8142592288829702</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AD23" s="8">
         <v>48.833333333333329</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AE23" s="8">
         <v>19.583333333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:34">
       <c r="A24" s="10">
         <v>1990</v>
       </c>
@@ -3632,17 +3787,23 @@
       <c r="Z24" s="4">
         <v>449442</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="15">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AC24">
         <v>6.8649999918761102</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="AD24" s="8">
         <v>19.583333333333332</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AE24" s="8">
         <v>54.666666666666671</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:34">
       <c r="A25" s="10">
         <v>1991</v>
       </c>
@@ -3722,17 +3883,23 @@
       <c r="Z25" s="4">
         <v>336190</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="15">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AC25">
         <v>7.3350000116560201</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AD25" s="8">
         <v>54.666666666666671</v>
       </c>
-      <c r="AC25" s="8">
+      <c r="AE25" s="8">
         <v>23.25</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:34">
       <c r="A26" s="10">
         <v>1992</v>
       </c>
@@ -3812,17 +3979,23 @@
       <c r="Z26" s="4">
         <v>327209</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="15">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AC26">
         <v>7.1168518419618998</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AD26" s="8">
         <v>23.25</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AE26" s="8">
         <v>18.25</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:34">
       <c r="A27" s="10">
         <v>1993</v>
       </c>
@@ -3902,17 +4075,23 @@
       <c r="Z27" s="4">
         <v>726883</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="15">
+        <v>292579.9914</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AC27">
         <v>6.8716666433546303</v>
       </c>
-      <c r="AB27" s="8">
+      <c r="AD27" s="8">
         <v>18.25</v>
       </c>
-      <c r="AC27" s="8">
+      <c r="AE27" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:34">
       <c r="A28" s="10">
         <v>1994</v>
       </c>
@@ -3992,17 +4171,23 @@
       <c r="Z28" s="4">
         <v>577028</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="15">
+        <v>299951.5405</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>292579.9914</v>
+      </c>
+      <c r="AC28">
         <v>6.8961110998082997</v>
       </c>
-      <c r="AB28" s="8">
+      <c r="AD28" s="8">
         <v>-1</v>
       </c>
-      <c r="AC28" s="8">
+      <c r="AE28" s="8">
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:34">
       <c r="A29" s="10">
         <v>1995</v>
       </c>
@@ -4082,17 +4267,23 @@
       <c r="Z29" s="4">
         <v>238272</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="15">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>299951.5405</v>
+      </c>
+      <c r="AC29">
         <v>7.6879629382380701</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AD29" s="8">
         <v>2.666666666666667</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AE29" s="8">
         <v>7.4166666666666661</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:34">
       <c r="A30" s="10">
         <v>1996</v>
       </c>
@@ -4172,17 +4363,23 @@
       <c r="Z30" s="4">
         <v>73396</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="15">
+        <v>252000.3579</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AC30">
         <v>7.2679629855685803</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AD30" s="8">
         <v>7.4166666666666661</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AE30" s="8">
         <v>-12.416666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:34">
       <c r="A31" s="10">
         <v>1997</v>
       </c>
@@ -4262,17 +4459,23 @@
       <c r="Z31" s="4">
         <v>138982</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="15">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>252000.3579</v>
+      </c>
+      <c r="AC31">
         <v>6.8137037047633404</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AD31" s="8">
         <v>-12.416666666666666</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AE31" s="8">
         <v>33.833333333333329</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:34">
       <c r="A32" s="10">
         <v>1998</v>
       </c>
@@ -4352,17 +4555,23 @@
       <c r="Z32" s="4">
         <v>198466</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="15">
+        <v>298739.391</v>
+      </c>
+      <c r="AB32" s="15">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AC32">
         <v>7.1001851558685303</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AD32" s="8">
         <v>33.833333333333329</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AE32" s="8">
         <v>31.416666666666668</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:31">
       <c r="A33" s="10">
         <v>1999</v>
       </c>
@@ -4442,17 +4651,23 @@
       <c r="Z33" s="4">
         <v>348129</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="15">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>298739.391</v>
+      </c>
+      <c r="AC33">
         <v>6.9649999494905801</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AD33" s="8">
         <v>31.416666666666668</v>
       </c>
-      <c r="AC33" s="8">
+      <c r="AE33" s="8">
         <v>34.083333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:31">
       <c r="A34" s="10">
         <v>2000</v>
       </c>
@@ -4532,17 +4747,23 @@
       <c r="Z34" s="4">
         <v>293340</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="15">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AC34">
         <v>7.3007407541628204</v>
       </c>
-      <c r="AB34" s="8">
+      <c r="AD34" s="8">
         <v>34.083333333333336</v>
       </c>
-      <c r="AC34" s="8">
+      <c r="AE34" s="8">
         <v>34.083333333333329</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:31">
       <c r="A35" s="10">
         <v>2001</v>
       </c>
@@ -4622,17 +4843,23 @@
       <c r="Z35" s="4">
         <v>588227</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="15">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AC35">
         <v>7.5570370091332304</v>
       </c>
-      <c r="AB35" s="8">
+      <c r="AD35" s="8">
         <v>34.083333333333329</v>
       </c>
-      <c r="AC35" s="8">
+      <c r="AE35" s="8">
         <v>20.166666666666664</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:31">
       <c r="A36" s="10">
         <v>2002</v>
       </c>
@@ -4712,17 +4939,23 @@
       <c r="Z36" s="4">
         <v>435769</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="15">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AC36">
         <v>7.4987037181854204</v>
       </c>
-      <c r="AB36" s="8">
+      <c r="AD36" s="8">
         <v>20.166666666666664</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AE36" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:31">
       <c r="A37" s="10">
         <v>2003</v>
       </c>
@@ -4802,17 +5035,23 @@
       <c r="Z37" s="4">
         <v>567839</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="15">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AC37">
         <v>7.46629631077802</v>
       </c>
-      <c r="AB37" s="8">
+      <c r="AD37" s="8">
         <v>27</v>
       </c>
-      <c r="AC37" s="8">
+      <c r="AE37" s="8">
         <v>-23.916666666666668</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:31">
       <c r="A38" s="10">
         <v>2004</v>
       </c>
@@ -4892,17 +5131,23 @@
       <c r="Z38" s="4">
         <v>364547</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="15">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AC38">
         <v>6.8118517928653297</v>
       </c>
-      <c r="AB38" s="8">
+      <c r="AD38" s="8">
         <v>-23.916666666666668</v>
       </c>
-      <c r="AC38" s="8">
+      <c r="AE38" s="8">
         <v>-39.416666666666671</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:31">
       <c r="A39" s="10">
         <v>2005</v>
       </c>
@@ -4982,17 +5227,23 @@
       <c r="Z39" s="4">
         <v>401420</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="15">
+        <v>319096.78320000001</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AC39">
         <v>6.75314815839132</v>
       </c>
-      <c r="AB39" s="8">
+      <c r="AD39" s="8">
         <v>-39.416666666666671</v>
       </c>
-      <c r="AC39" s="8">
+      <c r="AE39" s="8">
         <v>-20.833333333333332</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:31">
       <c r="A40" s="10">
         <v>2006</v>
       </c>
@@ -5072,17 +5323,23 @@
       <c r="Z40" s="4">
         <v>171002</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="15">
+        <v>267765.34590000001</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>319096.78320000001</v>
+      </c>
+      <c r="AC40">
         <v>6.5192592894589501</v>
       </c>
-      <c r="AB40" s="8">
+      <c r="AD40" s="8">
         <v>-20.833333333333332</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AE40" s="8">
         <v>10.083333333333334</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:31">
       <c r="A41" s="10">
         <v>2007</v>
       </c>
@@ -5162,17 +5419,23 @@
       <c r="Z41" s="4">
         <v>279304</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="15">
+        <v>314611.1165</v>
+      </c>
+      <c r="AB41" s="15">
+        <v>267765.34590000001</v>
+      </c>
+      <c r="AC41">
         <v>6.7938889176757202</v>
       </c>
-      <c r="AB41" s="8">
+      <c r="AD41" s="8">
         <v>10.083333333333334</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AE41" s="8">
         <v>15.499999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:31">
       <c r="A42" s="10">
         <v>2008</v>
       </c>
@@ -5252,17 +5515,23 @@
       <c r="Z42" s="4">
         <v>249070</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="15">
+        <v>315397.29220000003</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>314611.1165</v>
+      </c>
+      <c r="AC42">
         <v>7.0305555396609796</v>
       </c>
-      <c r="AB42" s="8">
+      <c r="AD42" s="8">
         <v>15.499999999999998</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AE42" s="8">
         <v>42.583333333333329</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:31">
       <c r="A43" s="10">
         <v>2009</v>
       </c>
@@ -5338,17 +5607,23 @@
       <c r="Z43" s="4">
         <v>251698</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="15">
+        <v>275038.97730000003</v>
+      </c>
+      <c r="AB43" s="15">
+        <v>315397.29220000003</v>
+      </c>
+      <c r="AC43">
         <v>6.9181481334898196</v>
       </c>
-      <c r="AB43" s="8">
+      <c r="AD43" s="8">
         <v>42.583333333333329</v>
       </c>
-      <c r="AC43" s="8">
+      <c r="AE43" s="8">
         <v>67.25</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:31">
       <c r="A44" s="10">
         <v>2010</v>
       </c>
@@ -5424,17 +5699,23 @@
       <c r="Z44" s="4">
         <v>166027</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="15">
+        <v>292554.16009999998</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>275038.97730000003</v>
+      </c>
+      <c r="AC44">
         <v>6.6629629355889799</v>
       </c>
-      <c r="AB44" s="8">
+      <c r="AD44" s="8">
         <v>67.25</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AE44" s="8">
         <v>28.25</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:31">
       <c r="A45" s="10">
         <v>2011</v>
       </c>
@@ -5504,17 +5785,23 @@
       <c r="Z45" s="4">
         <v>168260</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="15">
+        <v>273244.43440000003</v>
+      </c>
+      <c r="AB45" s="15">
+        <v>292554.16009999998</v>
+      </c>
+      <c r="AC45">
         <v>6.93333329094781</v>
       </c>
-      <c r="AB45" s="8">
+      <c r="AD45" s="8">
         <v>28.25</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AE45" s="8">
         <v>55.666666666666664</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:31">
       <c r="A46" s="10">
         <v>2012</v>
       </c>
@@ -5581,14 +5868,20 @@
       <c r="W46" s="1">
         <v>41611461</v>
       </c>
-      <c r="AB46" s="8">
+      <c r="AA46" s="15">
+        <v>308300.49810000003</v>
+      </c>
+      <c r="AB46" s="15">
+        <v>273244.43440000003</v>
+      </c>
+      <c r="AD46" s="8">
         <v>55.666666666666664</v>
       </c>
-      <c r="AC46" s="8">
+      <c r="AE46" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:31">
       <c r="A47" s="10">
         <v>2013</v>
       </c>
@@ -5653,8 +5946,14 @@
         <v>4867016</v>
       </c>
       <c r="W47" s="15"/>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AA47" s="15">
+        <v>295016.70919999998</v>
+      </c>
+      <c r="AB47" s="15">
+        <v>308300.49810000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="10">
         <v>2014</v>
       </c>
@@ -5714,8 +6013,10 @@
         <v>2717315</v>
       </c>
       <c r="W48" s="15"/>
-    </row>
-    <row r="49" spans="13:23">
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+    </row>
+    <row r="49" spans="13:28">
       <c r="M49" s="13"/>
       <c r="N49"/>
       <c r="O49"/>
@@ -5725,15 +6026,17 @@
       </c>
       <c r="U49"/>
       <c r="W49" s="15"/>
-    </row>
-    <row r="50" spans="13:23">
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+    </row>
+    <row r="50" spans="13:28">
       <c r="M50" s="13"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="W50" s="15"/>
     </row>
-    <row r="51" spans="13:23">
+    <row r="51" spans="13:28">
       <c r="W51" s="13"/>
     </row>
   </sheetData>

--- a/data/salmon data/data for analysis/Coghill_Wild_Sockeye_final.xlsx
+++ b/data/salmon data/data for analysis/Coghill_Wild_Sockeye_final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1480" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -981,8 +981,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,8 +1001,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF305"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1004,6 +1016,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1232,7 +1255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1256,6 +1279,10 @@
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="225">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1811,17 +1838,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AB49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="8" customWidth="1"/>
     <col min="5" max="18" width="11" style="8" customWidth="1"/>
     <col min="19" max="19" width="11" style="14" customWidth="1"/>
@@ -1932,12 +1959,12 @@
       <c r="B2" s="3">
         <v>11800</v>
       </c>
-      <c r="C2" s="8">
-        <v>87325</v>
+      <c r="C2" s="19">
+        <v>137510</v>
       </c>
       <c r="D2" s="8">
         <f>C2/B2</f>
-        <v>7.4004237288135597</v>
+        <v>11.653389830508475</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
@@ -1982,12 +2009,12 @@
       <c r="B3" s="3">
         <v>81000</v>
       </c>
-      <c r="C3" s="8">
-        <v>159288</v>
+      <c r="C3" s="19">
+        <v>91750</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D42" si="0">C3/B3</f>
-        <v>1.9665185185185186</v>
+        <v>1.132716049382716</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -2044,12 +2071,12 @@
       <c r="B4" s="3">
         <v>35200</v>
       </c>
-      <c r="C4" s="8">
-        <v>62559.000000000007</v>
+      <c r="C4" s="19">
+        <v>220868</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="0"/>
-        <v>1.7772443181818185</v>
+        <v>6.2746590909090907</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -2113,12 +2140,12 @@
       <c r="B5" s="3">
         <v>15000</v>
       </c>
-      <c r="C5" s="8">
-        <v>60516</v>
+      <c r="C5" s="19">
+        <v>46728</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>4.0343999999999998</v>
+        <v>3.1152000000000002</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -2182,12 +2209,12 @@
       <c r="B6" s="3">
         <v>51000</v>
       </c>
-      <c r="C6" s="8">
-        <v>184971.16932856577</v>
+      <c r="C6" s="19">
+        <v>218570</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>3.6268856731091326</v>
+        <v>4.2856862745098043</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -2251,12 +2278,12 @@
       <c r="B7" s="3">
         <v>55000</v>
       </c>
-      <c r="C7" s="8">
-        <v>132283.99999999951</v>
+      <c r="C7" s="19">
+        <v>233690</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>2.4051636363636275</v>
+        <v>4.2489090909090912</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -2321,12 +2348,12 @@
       <c r="B8" s="3">
         <v>22334</v>
       </c>
-      <c r="C8" s="8">
-        <v>121757</v>
+      <c r="C8" s="19">
+        <v>110825</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>5.4516432345303123</v>
+        <v>4.9621653084982542</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -2392,12 +2419,12 @@
       <c r="B9" s="3">
         <v>34855</v>
       </c>
-      <c r="C9" s="8">
-        <v>182706</v>
+      <c r="C9" s="19">
+        <v>191530</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>5.2418878209726012</v>
+        <v>5.4950509252617987</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -2465,12 +2492,12 @@
       <c r="B10" s="3">
         <v>9056</v>
       </c>
-      <c r="C10" s="8">
-        <v>69421</v>
+      <c r="C10" s="19">
+        <v>173531</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>7.665746466431095</v>
+        <v>19.161992049469966</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -2540,12 +2567,12 @@
       <c r="B11" s="3">
         <v>31562</v>
       </c>
-      <c r="C11" s="8">
-        <v>202340</v>
+      <c r="C11" s="19">
+        <v>1251048</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>6.4108738356251189</v>
+        <v>39.637792281857934</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
@@ -2615,12 +2642,12 @@
       <c r="B12" s="3">
         <v>42284</v>
       </c>
-      <c r="C12" s="8">
-        <v>245808</v>
+      <c r="C12" s="19">
+        <v>70303</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>5.813262699839183</v>
+        <v>1.6626383502033866</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -2690,12 +2717,12 @@
       <c r="B13" s="3">
         <v>48281</v>
       </c>
-      <c r="C13" s="8">
-        <v>126991</v>
+      <c r="C13" s="19">
+        <v>150407</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>2.6302479236138439</v>
+        <v>3.115242020670657</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -2769,12 +2796,12 @@
       <c r="B14" s="3">
         <v>142253</v>
       </c>
-      <c r="C14" s="8">
-        <v>201386.99999999997</v>
+      <c r="C14" s="19">
+        <v>473656</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>1.4156959782921974</v>
+        <v>3.3296731879116783</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -2855,12 +2882,12 @@
       <c r="B15" s="3">
         <v>156112</v>
       </c>
-      <c r="C15" s="8">
-        <v>259166.99999999991</v>
+      <c r="C15" s="19">
+        <v>496238</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>1.6601350312596079</v>
+        <v>3.1787306549144203</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -2949,12 +2976,12 @@
       <c r="B16" s="3">
         <v>180314</v>
       </c>
-      <c r="C16" s="8">
-        <v>1127475.2720999999</v>
+      <c r="C16" s="19">
+        <v>612159</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>6.2528437730847299</v>
+        <v>3.394961012456049</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -3043,12 +3070,12 @@
       <c r="B17" s="3">
         <v>38783</v>
       </c>
-      <c r="C17" s="8">
-        <v>73025</v>
+      <c r="C17" s="19">
+        <v>106297</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>1.8829126163525256</v>
+        <v>2.7408142742954387</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -3139,12 +3166,12 @@
       <c r="B18" s="3">
         <v>63622</v>
       </c>
-      <c r="C18" s="8">
-        <v>157245</v>
+      <c r="C18" s="19">
+        <v>203086</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
-        <v>2.4715507214485557</v>
+        <v>3.1920719248058846</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -3233,12 +3260,12 @@
       <c r="B19" s="3">
         <v>163342</v>
       </c>
-      <c r="C19" s="8">
-        <v>509273.83158215007</v>
+      <c r="C19" s="19">
+        <v>16598</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
-        <v>3.1178376142213886</v>
+        <v>0.10161501634607144</v>
       </c>
       <c r="E19" s="8">
         <v>0</v>
@@ -3330,12 +3357,12 @@
       <c r="B20" s="3">
         <v>74135</v>
       </c>
-      <c r="C20" s="8">
-        <v>469304.65756999992</v>
+      <c r="C20" s="19">
+        <v>26918</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="0"/>
-        <v>6.3304061181628102</v>
+        <v>0.36309435489310043</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -3425,12 +3452,12 @@
       <c r="B21" s="3">
         <v>187263</v>
       </c>
-      <c r="C21" s="8">
-        <v>598733</v>
+      <c r="C21" s="19">
+        <v>60053</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>3.1972840336852446</v>
+        <v>0.32068801631929428</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -3522,12 +3549,12 @@
       <c r="B22" s="3">
         <v>72023</v>
       </c>
-      <c r="C22" s="8">
-        <v>152650</v>
+      <c r="C22" s="19">
+        <v>50495</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>2.1194618385793427</v>
+        <v>0.70109548338725125</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -3618,12 +3645,12 @@
       <c r="B23" s="3">
         <v>36881</v>
       </c>
-      <c r="C23" s="8">
-        <v>144785</v>
+      <c r="C23" s="19">
+        <v>9410</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
-        <v>3.9257341178384535</v>
+        <v>0.25514492557143242</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
@@ -3714,12 +3741,12 @@
       <c r="B24" s="3">
         <v>8250</v>
       </c>
-      <c r="C24" s="8">
-        <v>19620.419999999998</v>
+      <c r="C24" s="19">
+        <v>26127</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="0"/>
-        <v>2.3782327272727271</v>
+        <v>3.1669090909090909</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
@@ -3810,12 +3837,12 @@
       <c r="B25" s="3">
         <v>9701</v>
       </c>
-      <c r="C25" s="8">
-        <v>20302.158845587157</v>
+      <c r="C25" s="19">
+        <v>153809</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="0"/>
-        <v>2.0927903149765132</v>
+        <v>15.85496340583445</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -3906,12 +3933,12 @@
       <c r="B26" s="3">
         <v>29642</v>
       </c>
-      <c r="C26" s="8">
-        <v>67203.278000000006</v>
+      <c r="C26" s="19">
+        <v>114128</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="0"/>
-        <v>2.2671640914918023</v>
+        <v>3.8502125362661088</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -4002,12 +4029,12 @@
       <c r="B27" s="3">
         <v>9232</v>
       </c>
-      <c r="C27" s="8">
-        <v>48357</v>
+      <c r="C27" s="19">
+        <v>67501</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
-        <v>5.2379766031195842</v>
+        <v>7.3116334488734838</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -4098,12 +4125,12 @@
       <c r="B28" s="3">
         <v>7264</v>
       </c>
-      <c r="C28" s="8">
-        <v>9291</v>
+      <c r="C28" s="19">
+        <v>27941</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" si="0"/>
-        <v>1.2790473568281939</v>
+        <v>3.8465033039647576</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -4194,12 +4221,12 @@
       <c r="B29" s="3">
         <v>30382</v>
       </c>
-      <c r="C29" s="8">
-        <v>61296</v>
+      <c r="C29" s="19">
+        <v>317407</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
-        <v>2.0175103679810413</v>
+        <v>10.44720558225265</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
@@ -4290,12 +4317,12 @@
       <c r="B30" s="3">
         <v>38693</v>
       </c>
-      <c r="C30" s="8">
-        <v>131181</v>
+      <c r="C30" s="19">
+        <v>133377</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="0"/>
-        <v>3.390303155609542</v>
+        <v>3.4470576073191532</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -4386,12 +4413,12 @@
       <c r="B31" s="3">
         <v>35010</v>
       </c>
-      <c r="C31" s="8">
-        <v>106750.98300000001</v>
+      <c r="C31" s="19">
+        <v>44736</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
-        <v>3.0491568980291346</v>
+        <v>1.2778063410454157</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -4482,12 +4509,12 @@
       <c r="B32" s="3">
         <v>28963</v>
       </c>
-      <c r="C32" s="8">
-        <v>63370</v>
+      <c r="C32" s="19">
+        <v>89490</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="0"/>
-        <v>2.1879639540102889</v>
+        <v>3.0898042329869142</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
@@ -4578,12 +4605,12 @@
       <c r="B33" s="3">
         <v>59311</v>
       </c>
-      <c r="C33" s="8">
-        <v>148052</v>
+      <c r="C33" s="19">
+        <v>234831</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
-        <v>2.4961980071150376</v>
+        <v>3.9593161470890728</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
@@ -4674,12 +4701,12 @@
       <c r="B34" s="3">
         <v>28416</v>
       </c>
-      <c r="C34" s="8">
-        <v>213816</v>
+      <c r="C34" s="19">
+        <v>143849</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" si="0"/>
-        <v>7.524493243243243</v>
+        <v>5.0622536599099099</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
@@ -4770,12 +4797,12 @@
       <c r="B35" s="3">
         <v>38547</v>
       </c>
-      <c r="C35" s="8">
-        <v>126026</v>
+      <c r="C35" s="20">
+        <v>15616</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="0"/>
-        <v>3.2694113679404362</v>
+        <v>0.40511583261991851</v>
       </c>
       <c r="E35" s="8">
         <v>0</v>
@@ -4866,12 +4893,12 @@
       <c r="B36" s="3">
         <v>28323</v>
       </c>
-      <c r="C36" s="8">
-        <v>52603</v>
+      <c r="C36" s="19">
+        <v>180332</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" si="0"/>
-        <v>1.8572538219821346</v>
+        <v>6.3669808989160757</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
@@ -4962,12 +4989,12 @@
       <c r="B37" s="3">
         <v>75427</v>
       </c>
-      <c r="C37" s="8">
-        <v>170013</v>
+      <c r="C37" s="19">
+        <v>102397</v>
       </c>
       <c r="D37" s="8">
         <f t="shared" si="0"/>
-        <v>2.2540071857557638</v>
+        <v>1.3575642674373898</v>
       </c>
       <c r="E37" s="8">
         <v>0</v>
@@ -5058,12 +5085,12 @@
       <c r="B38" s="3">
         <v>30569</v>
       </c>
-      <c r="C38" s="8">
-        <v>190475</v>
+      <c r="C38" s="19">
+        <v>154110</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" si="0"/>
-        <v>6.230985639046092</v>
+        <v>5.0413817920115154</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
@@ -5154,12 +5181,12 @@
       <c r="B39" s="3">
         <v>30313</v>
       </c>
-      <c r="C39" s="8">
-        <v>94282</v>
+      <c r="C39" s="19">
+        <v>35754</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="0"/>
-        <v>3.1102827169861116</v>
+        <v>1.1794939464916043</v>
       </c>
       <c r="E39" s="8">
         <v>0</v>
@@ -5250,12 +5277,12 @@
       <c r="B40" s="3">
         <v>23479</v>
       </c>
-      <c r="C40" s="8">
-        <v>32870</v>
+      <c r="C40" s="19">
+        <v>164495</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" si="0"/>
-        <v>1.3999744452489458</v>
+        <v>7.0060479577494785</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -5346,12 +5373,12 @@
       <c r="B41" s="3">
         <v>70001</v>
       </c>
-      <c r="C41" s="8">
-        <v>183026</v>
+      <c r="C41" s="19">
+        <v>649042</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" si="0"/>
-        <v>2.6146197911458406</v>
+        <v>9.2718961157697741</v>
       </c>
       <c r="E41" s="8">
         <v>0</v>
@@ -5442,12 +5469,12 @@
       <c r="B42" s="3">
         <v>29298</v>
       </c>
-      <c r="C42" s="8">
-        <v>120574</v>
+      <c r="C42" s="19">
+        <v>71784</v>
       </c>
       <c r="D42" s="8">
         <f t="shared" si="0"/>
-        <v>4.115434500648508</v>
+        <v>2.4501331148883883</v>
       </c>
       <c r="E42" s="8">
         <v>0</v>
@@ -5538,8 +5565,8 @@
       <c r="B43" s="4">
         <v>23186</v>
       </c>
-      <c r="C43" s="8">
-        <v>113040</v>
+      <c r="C43" s="19">
+        <v>120904</v>
       </c>
       <c r="E43" s="8">
         <v>0</v>
@@ -5630,8 +5657,8 @@
       <c r="B44" s="4">
         <v>24312</v>
       </c>
-      <c r="C44" s="8">
-        <v>66793</v>
+      <c r="C44" s="19">
+        <v>21034</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -5722,8 +5749,8 @@
       <c r="B45" s="12">
         <v>102359</v>
       </c>
-      <c r="C45" s="8">
-        <v>234022</v>
+      <c r="C45" s="21">
+        <v>199</v>
       </c>
       <c r="E45" s="8">
         <v>0</v>
@@ -5808,9 +5835,6 @@
       <c r="B46" s="12">
         <v>74978</v>
       </c>
-      <c r="C46" s="8">
-        <v>573938</v>
-      </c>
       <c r="E46" s="8">
         <v>0</v>
       </c>
@@ -5888,9 +5912,6 @@
       <c r="B47" s="12">
         <v>17231</v>
       </c>
-      <c r="C47" s="8">
-        <v>79944</v>
-      </c>
       <c r="E47" s="8">
         <v>0</v>
       </c>
@@ -5960,9 +5981,6 @@
       <c r="B48" s="12">
         <v>21836</v>
       </c>
-      <c r="C48" s="8">
-        <v>104806</v>
-      </c>
       <c r="E48" s="8">
         <v>0</v>
       </c>
@@ -6015,29 +6033,6 @@
       <c r="W48" s="15"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
-    </row>
-    <row r="49" spans="13:28">
-      <c r="M49" s="13"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49">
-        <v>2329059.6330275228</v>
-      </c>
-      <c r="U49"/>
-      <c r="W49" s="15"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-    </row>
-    <row r="50" spans="13:28">
-      <c r="M50" s="13"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="W50" s="15"/>
-    </row>
-    <row r="51" spans="13:28">
-      <c r="W51" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
